--- a/TG-Bug_Contacts_13July2021.xlsx
+++ b/TG-Bug_Contacts_13July2021.xlsx
@@ -12,8 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$B$11:$M$47</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$11:$J$47</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$11:$J$45</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$11:$J$57</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$11:$J$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$B$11:$J$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Sheet1!$B$11:$J$44</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Sheet1!$B$11:$J$20</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Sheet1!$B$11:$J$22</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="214">
   <si>
     <t xml:space="preserve">Journal websites:</t>
   </si>
@@ -78,47 +79,67 @@
     <t xml:space="preserve">Other/Comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Wang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanghai Instit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuro Inflammation</t>
+    <t xml:space="preserve">Al-Hindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adnan I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ Glasgow UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instituto de Biofisica C C Fiho Rio de Janeri Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://parasitesandvectors.biomedcentral.com/articles/10.1186/s13071-020-04445-z#MOESM21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The life-cycle of Toxoplasma gondii reviewed using animations  (See embedded Fig &amp; videos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baizabal-Carvallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Fidel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept of Science and Engr, Univ
+of Guanajuato, Guanajuato, México</t>
   </si>
   <si>
     <t xml:space="preserve">PD</t>
   </si>
   <si>
-    <t xml:space="preserve">Neuroinflammation in Parkinson’s disease
-and its potential as therapeutic target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Hindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adnan I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ Glasgow UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instituto de Biofisica C C Fiho Rio de Janeri Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://parasitesandvectors.biomedcentral.com/articles/10.1186/s13071-020-04445-z#MOESM21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The life-cycle of Toxoplasma gondii reviewed using animations  (See embedded Fig &amp; videos)</t>
+    <t xml:space="preserve">gut biota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gut microbiota: a potential
+therapeutic target for Parkinson’s
+Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ of Portugal, Immunology Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T gondii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaccines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccines in Congenital Toxoplasmosis: Advances and Perspectives</t>
   </si>
   <si>
     <t xml:space="preserve">Bernal</t>
@@ -172,6 +193,21 @@
     <t xml:space="preserve">Univ Mich Medical School</t>
   </si>
   <si>
+    <t xml:space="preserve">Damerow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backyard Poultry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chickens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cats + Chickens = Toxoplasmosis in Humans?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Davy</t>
   </si>
   <si>
@@ -190,6 +226,37 @@
     <t xml:space="preserve">https://braizon.com/en/</t>
   </si>
   <si>
+    <t xml:space="preserve">Dubey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. P.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDA, ARS, Beltsville, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC Dept Ag Veterinary Division - Animal Health Programs
+Swine Toxoplasmosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ Chicago-Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reliable point-of-care blood test can help prevent toxoplasmosis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Essen</t>
   </si>
   <si>
@@ -220,6 +287,22 @@
     <t xml:space="preserve">Univ Sao Paulo Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">Gilbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebecca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adaparkinsonson.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflammation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THE ROLE OF INFLAMMATION IN
+PARKINSON’S DISEASE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gomez-Marin</t>
   </si>
   <si>
@@ -262,6 +345,21 @@
     <t xml:space="preserve">Statens Serum Institut Denmark</t>
   </si>
   <si>
+    <t xml:space="preserve">Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatiane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept of Molecular Biology &amp; BioChemistry, Instit of Immuniology, UC-Irvine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanisms of Human Innate Immune Evasion by Toxoplasma gondii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lourido</t>
   </si>
   <si>
@@ -299,9 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve">Universite de Tours, FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T gondii</t>
   </si>
   <si>
     <t xml:space="preserve">Vaccine; animals &amp; human</t>
@@ -396,167 +491,6 @@
   </si>
   <si>
     <t xml:space="preserve">Toxoplasma TgATG9 is critical for autophagy and long-term persistence in tissue cysts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spriggs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busch Gardens Tampa, FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Su</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chunley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ Tenn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://microbioconference.com/toxo-2021/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sugi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatsuki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venkataramana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr Mohan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experteze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bio informatics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.experteze.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflammation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zukhruf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Med School Islamabad, Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=3o7HAiu5pB0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qinqin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Neuroscience, Shanghai</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Neuroinflammation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neuroinflammation in Parkinson's disease and its
-potential as therapeutic target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J. P.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDA, ARS, Beltsville, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC Dept Ag Veterinary Division - Animal Health Programs
-Swine Toxoplasmosi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatiane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept of Molecular Biology &amp; BioChemistry, Instit of Immuniology, UC-Irvine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">human</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanisms of Human Innate Immune Evasion by Toxoplasma gondii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ of Portugal, Immunology Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vaccines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaccines in Congenital Toxoplasmosis: Advances and Perspectives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damerow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backyard Poultry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chickens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cats + Chickens = Toxoplasmosis in Humans?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Univ Chicago-Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reliable point-of-care blood test can help prevent toxoplasmosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stelzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal Institute Animal Health Insel Reims, GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxoplasma gondii infection and toxoplasmosis in farm animals: Risk factors and economic impact</t>
   </si>
   <si>
     <t xml:space="preserve">Spencer</t>
@@ -579,35 +513,176 @@
 Parkinsonism-Dementia Complex</t>
   </si>
   <si>
-    <t xml:space="preserve">Gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebecca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adaparkinsonson.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THE ROLE OF INFLAMMATION IN
-PARKINSON’S DISEASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baizabal-Carvallo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Fidel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept of Science and Engr, Univ
-of Guanajuato, Guanajuato, México</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gut biota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gut microbiota: a potential
-therapeutic target for Parkinson’s
-Disease</t>
+    <t xml:space="preserve">Spriggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busch Gardens Tampa, FL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stelzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Federal Institute Animal Health Insel Reims, GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxoplasma gondii infection and toxoplasmosis in farm animals: Risk factors and economic impact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chunley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Univ Tenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://microbioconference.com/toxo-2021/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatsuki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venkataramana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr Mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experteze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.experteze.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Instit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuro Inflammation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroinflammation in Parkinson’s disease
+and its potential as therapeutic target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qinqin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Neuroscience, Shanghai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neuroinflammation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuroinflammation in Parkinson's disease and its
+potential as therapeutic target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zukhruf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Med School Islamabad, Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=3o7HAiu5pB0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEXX Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruminant testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.idexx.com/en/livestock/livestock-tests/ruminant-tests/idexx-toxotest-ab-test/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEXX Toxotest Ab Test enzyme immunoassay for small ruminants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.genwaybio.com/igg-antibodies-to-toxoplasma-gondii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toxoplasma IgG Enzyme Immunoassay Test Kit (GWB-789E36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marianna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC Div of Parasitic Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t gondii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC230132/pdf/353112.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997, Evaluation of six commercial kits for detection of human immunoglobulin M antibodies to Toxoplasma gondii. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermofisher Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.thermofisher.com/order/catalog/product/TXP50#/TXP50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogal Corp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.biogal.com/wp-content/uploads/2019/07/63FTC711-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELINE TOXOPLASMA &amp;
+CHLAMYDOPHILA ANTIBODY
+TEST KIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculdade de Medicina de São José Do Rio Preto, São José Do Rio Preto,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frontiersin.org/articles/10.3389/fcimb.2019.00472/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation of Serological and Molecular Tests Used for the Identification of Toxoplasma gondii Infection in Patients Treated in an Ophthalmology Clinic of a Public Health Service in São Paulo State, Brazil</t>
   </si>
 </sst>
 </file>
@@ -775,15 +850,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -799,11 +870,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -891,10 +966,10 @@
   </sheetPr>
   <dimension ref="B3:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3120" topLeftCell="A13" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3750" topLeftCell="A61" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -977,7 +1052,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
@@ -987,67 +1062,67 @@
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1057,127 +1132,127 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="J19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="11" t="s">
-        <v>51</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
         <v>53</v>
       </c>
@@ -1188,982 +1263,1052 @@
         <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>64</v>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>75</v>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>96</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6" t="s">
-        <v>105</v>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>115</v>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13" t="s">
-        <v>116</v>
+      <c r="B39" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="6" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J43" s="9"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="6" t="s">
-        <v>131</v>
+    <row r="45" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="J45" s="9"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>138</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="D47" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>142</v>
+    <row r="48" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>20</v>
+        <v>155</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
       <c r="J48" s="6" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="6" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>152</v>
+    <row r="50" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>159</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="I51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" s="7"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="6" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>167</v>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="6" t="s">
-        <v>170</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J53" s="7"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>172</v>
+      <c r="L53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="6" t="s">
         <v>176</v>
       </c>
+      <c r="C55" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="D55" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E55" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+        <v>183</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>186</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="6" t="s">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="E58" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+      <c r="E59" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
+      <c r="E61" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
+      <c r="E62" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B11:J47"/>
+  <autoFilter ref="B11:J57"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://pubmed.ncbi.nlm.nih.gov"/>
     <hyperlink ref="C4" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc"/>
     <hyperlink ref="C5" r:id="rId3" display="https://www.frontiersin.org/articles"/>
     <hyperlink ref="C6" r:id="rId4" display="https://elifesciences.org/"/>
-    <hyperlink ref="G20" r:id="rId5" display="pdavy@braizon.com"/>
+    <hyperlink ref="G22" r:id="rId5" display="pdavy@braizon.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
